--- a/data_year/zb/综合/行政区划.xlsx
+++ b/data_year/zb/综合/行政区划.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,841 +493,521 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23199</v>
+        <v>14571</v>
       </c>
       <c r="C2" t="n">
-        <v>49668</v>
+        <v>40906</v>
       </c>
       <c r="D2" t="n">
-        <v>1503</v>
+        <v>1461</v>
       </c>
       <c r="E2" t="n">
-        <v>2861</v>
+        <v>2856</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="G2" t="n">
         <v>333</v>
       </c>
       <c r="H2" t="n">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="I2" t="n">
-        <v>787</v>
+        <v>853</v>
       </c>
       <c r="J2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2" t="n">
-        <v>5902</v>
+        <v>6923</v>
       </c>
       <c r="L2" t="n">
-        <v>20312</v>
+        <v>19410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19341</v>
+        <v>13587</v>
       </c>
       <c r="C3" t="n">
-        <v>45303</v>
+        <v>40466</v>
       </c>
       <c r="D3" t="n">
-        <v>1489</v>
+        <v>1456</v>
       </c>
       <c r="E3" t="n">
-        <v>2861</v>
+        <v>2853</v>
       </c>
       <c r="F3" t="n">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="G3" t="n">
         <v>332</v>
       </c>
       <c r="H3" t="n">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I3" t="n">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="J3" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K3" t="n">
-        <v>5510</v>
+        <v>7194</v>
       </c>
       <c r="L3" t="n">
-        <v>20374</v>
+        <v>19683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18639</v>
+        <v>13281</v>
       </c>
       <c r="C4" t="n">
-        <v>44850</v>
+        <v>40446</v>
       </c>
       <c r="D4" t="n">
-        <v>1478</v>
+        <v>1453</v>
       </c>
       <c r="E4" t="n">
-        <v>2860</v>
+        <v>2852</v>
       </c>
       <c r="F4" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H4" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I4" t="n">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="J4" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" t="n">
-        <v>5576</v>
+        <v>7282</v>
       </c>
       <c r="L4" t="n">
-        <v>20601</v>
+        <v>19881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18064</v>
+        <v>12812</v>
       </c>
       <c r="C5" t="n">
-        <v>44067</v>
+        <v>40497</v>
       </c>
       <c r="D5" t="n">
-        <v>1470</v>
+        <v>1442</v>
       </c>
       <c r="E5" t="n">
-        <v>2861</v>
+        <v>2853</v>
       </c>
       <c r="F5" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G5" t="n">
         <v>333</v>
       </c>
       <c r="H5" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I5" t="n">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="J5" t="n">
         <v>117</v>
       </c>
       <c r="K5" t="n">
-        <v>5751</v>
+        <v>7566</v>
       </c>
       <c r="L5" t="n">
-        <v>20226</v>
+        <v>20117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17451</v>
+        <v>12282</v>
       </c>
       <c r="C6" t="n">
-        <v>43258</v>
+        <v>40381</v>
       </c>
       <c r="D6" t="n">
-        <v>1464</v>
+        <v>1425</v>
       </c>
       <c r="E6" t="n">
-        <v>2862</v>
+        <v>2854</v>
       </c>
       <c r="F6" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G6" t="n">
         <v>333</v>
       </c>
       <c r="H6" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I6" t="n">
-        <v>852</v>
+        <v>897</v>
       </c>
       <c r="J6" t="n">
         <v>117</v>
       </c>
       <c r="K6" t="n">
-        <v>5904</v>
+        <v>7696</v>
       </c>
       <c r="L6" t="n">
-        <v>19883</v>
+        <v>20401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15951</v>
+        <v>11315</v>
       </c>
       <c r="C7" t="n">
-        <v>41636</v>
+        <v>39789</v>
       </c>
       <c r="D7" t="n">
-        <v>1464</v>
+        <v>1397</v>
       </c>
       <c r="E7" t="n">
-        <v>2862</v>
+        <v>2850</v>
       </c>
       <c r="F7" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H7" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I7" t="n">
-        <v>852</v>
+        <v>921</v>
       </c>
       <c r="J7" t="n">
         <v>117</v>
       </c>
       <c r="K7" t="n">
-        <v>6152</v>
+        <v>7957</v>
       </c>
       <c r="L7" t="n">
-        <v>19522</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15306</v>
+        <v>10872</v>
       </c>
       <c r="C8" t="n">
-        <v>41040</v>
+        <v>39862</v>
       </c>
       <c r="D8" t="n">
-        <v>1463</v>
+        <v>1366</v>
       </c>
       <c r="E8" t="n">
-        <v>2860</v>
+        <v>2851</v>
       </c>
       <c r="F8" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G8" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H8" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I8" t="n">
-        <v>856</v>
+        <v>954</v>
       </c>
       <c r="J8" t="n">
         <v>117</v>
       </c>
       <c r="K8" t="n">
-        <v>6355</v>
+        <v>8105</v>
       </c>
       <c r="L8" t="n">
-        <v>19369</v>
+        <v>20883</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15120</v>
+        <v>10529</v>
       </c>
       <c r="C9" t="n">
-        <v>40813</v>
+        <v>39888</v>
       </c>
       <c r="D9" t="n">
-        <v>1463</v>
+        <v>1355</v>
       </c>
       <c r="E9" t="n">
-        <v>2859</v>
+        <v>2851</v>
       </c>
       <c r="F9" t="n">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G9" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H9" t="n">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I9" t="n">
-        <v>856</v>
+        <v>962</v>
       </c>
       <c r="J9" t="n">
         <v>117</v>
       </c>
       <c r="K9" t="n">
-        <v>6434</v>
+        <v>8241</v>
       </c>
       <c r="L9" t="n">
-        <v>19249</v>
+        <v>21116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15067</v>
+        <v>10253</v>
       </c>
       <c r="C10" t="n">
-        <v>40828</v>
+        <v>39945</v>
       </c>
       <c r="D10" t="n">
-        <v>1463</v>
+        <v>1335</v>
       </c>
       <c r="E10" t="n">
-        <v>2859</v>
+        <v>2851</v>
       </c>
       <c r="F10" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G10" t="n">
         <v>333</v>
       </c>
       <c r="H10" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I10" t="n">
-        <v>856</v>
+        <v>970</v>
       </c>
       <c r="J10" t="n">
         <v>117</v>
       </c>
       <c r="K10" t="n">
-        <v>6524</v>
+        <v>8393</v>
       </c>
       <c r="L10" t="n">
-        <v>19234</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14848</v>
+        <v>9221</v>
       </c>
       <c r="C11" t="n">
-        <v>40858</v>
+        <v>38755</v>
       </c>
       <c r="D11" t="n">
-        <v>1464</v>
+        <v>1323</v>
       </c>
       <c r="E11" t="n">
-        <v>2858</v>
+        <v>2846</v>
       </c>
       <c r="F11" t="n">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="G11" t="n">
         <v>333</v>
       </c>
       <c r="H11" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I11" t="n">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="J11" t="n">
         <v>117</v>
       </c>
       <c r="K11" t="n">
-        <v>6686</v>
+        <v>8519</v>
       </c>
       <c r="L11" t="n">
-        <v>19322</v>
+        <v>21013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14571</v>
+        <v>8809</v>
       </c>
       <c r="C12" t="n">
-        <v>40906</v>
+        <v>38741</v>
       </c>
       <c r="D12" t="n">
-        <v>1461</v>
+        <v>1312</v>
       </c>
       <c r="E12" t="n">
-        <v>2856</v>
+        <v>2844</v>
       </c>
       <c r="F12" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="G12" t="n">
         <v>333</v>
       </c>
       <c r="H12" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I12" t="n">
-        <v>853</v>
+        <v>973</v>
       </c>
       <c r="J12" t="n">
         <v>117</v>
       </c>
       <c r="K12" t="n">
-        <v>6923</v>
+        <v>8773</v>
       </c>
       <c r="L12" t="n">
-        <v>19410</v>
+        <v>21157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13587</v>
+        <v>8309</v>
       </c>
       <c r="C13" t="n">
-        <v>40466</v>
+        <v>38558</v>
       </c>
       <c r="D13" t="n">
-        <v>1456</v>
+        <v>1301</v>
       </c>
       <c r="E13" t="n">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="F13" t="n">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="G13" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H13" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I13" t="n">
-        <v>857</v>
+        <v>977</v>
       </c>
       <c r="J13" t="n">
         <v>117</v>
       </c>
       <c r="K13" t="n">
-        <v>7194</v>
+        <v>8925</v>
       </c>
       <c r="L13" t="n">
-        <v>19683</v>
+        <v>21322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13281</v>
+        <v>8227</v>
       </c>
       <c r="C14" t="n">
-        <v>40446</v>
+        <v>38602</v>
       </c>
       <c r="D14" t="n">
-        <v>1453</v>
+        <v>1301</v>
       </c>
       <c r="E14" t="n">
-        <v>2852</v>
+        <v>2843</v>
       </c>
       <c r="F14" t="n">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G14" t="n">
         <v>333</v>
       </c>
       <c r="H14" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I14" t="n">
-        <v>860</v>
+        <v>977</v>
       </c>
       <c r="J14" t="n">
         <v>117</v>
       </c>
       <c r="K14" t="n">
-        <v>7282</v>
+        <v>8984</v>
       </c>
       <c r="L14" t="n">
-        <v>19881</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12812</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40497</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1442</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2853</v>
-      </c>
-      <c r="F15" t="n">
-        <v>368</v>
-      </c>
-      <c r="G15" t="n">
-        <v>333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>286</v>
-      </c>
-      <c r="I15" t="n">
-        <v>872</v>
-      </c>
-      <c r="J15" t="n">
-        <v>117</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7566</v>
-      </c>
-      <c r="L15" t="n">
-        <v>20117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>12282</v>
-      </c>
-      <c r="C16" t="n">
-        <v>40381</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2854</v>
-      </c>
-      <c r="F16" t="n">
-        <v>361</v>
-      </c>
-      <c r="G16" t="n">
-        <v>333</v>
-      </c>
-      <c r="H16" t="n">
-        <v>288</v>
-      </c>
-      <c r="I16" t="n">
-        <v>897</v>
-      </c>
-      <c r="J16" t="n">
-        <v>117</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7696</v>
-      </c>
-      <c r="L16" t="n">
-        <v>20401</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11315</v>
-      </c>
-      <c r="C17" t="n">
-        <v>39789</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1397</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F17" t="n">
-        <v>361</v>
-      </c>
-      <c r="G17" t="n">
-        <v>334</v>
-      </c>
-      <c r="H17" t="n">
-        <v>291</v>
-      </c>
-      <c r="I17" t="n">
-        <v>921</v>
-      </c>
-      <c r="J17" t="n">
-        <v>117</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7957</v>
-      </c>
-      <c r="L17" t="n">
-        <v>20515</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10872</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39862</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1366</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2851</v>
-      </c>
-      <c r="F18" t="n">
-        <v>360</v>
-      </c>
-      <c r="G18" t="n">
-        <v>334</v>
-      </c>
-      <c r="H18" t="n">
-        <v>293</v>
-      </c>
-      <c r="I18" t="n">
-        <v>954</v>
-      </c>
-      <c r="J18" t="n">
-        <v>117</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8105</v>
-      </c>
-      <c r="L18" t="n">
-        <v>20883</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10529</v>
-      </c>
-      <c r="C19" t="n">
-        <v>39888</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1355</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2851</v>
-      </c>
-      <c r="F19" t="n">
-        <v>363</v>
-      </c>
-      <c r="G19" t="n">
-        <v>334</v>
-      </c>
-      <c r="H19" t="n">
-        <v>294</v>
-      </c>
-      <c r="I19" t="n">
-        <v>962</v>
-      </c>
-      <c r="J19" t="n">
-        <v>117</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8241</v>
-      </c>
-      <c r="L19" t="n">
-        <v>21116</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10253</v>
-      </c>
-      <c r="C20" t="n">
-        <v>39945</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1335</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2851</v>
-      </c>
-      <c r="F20" t="n">
-        <v>375</v>
-      </c>
-      <c r="G20" t="n">
-        <v>333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>293</v>
-      </c>
-      <c r="I20" t="n">
-        <v>970</v>
-      </c>
-      <c r="J20" t="n">
-        <v>117</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8393</v>
-      </c>
-      <c r="L20" t="n">
-        <v>21297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9221</v>
-      </c>
-      <c r="C21" t="n">
-        <v>38755</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1323</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2846</v>
-      </c>
-      <c r="F21" t="n">
-        <v>387</v>
-      </c>
-      <c r="G21" t="n">
-        <v>333</v>
-      </c>
-      <c r="H21" t="n">
-        <v>293</v>
-      </c>
-      <c r="I21" t="n">
-        <v>965</v>
-      </c>
-      <c r="J21" t="n">
-        <v>117</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8519</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21013</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8809</v>
-      </c>
-      <c r="C22" t="n">
-        <v>38741</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1312</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2844</v>
-      </c>
-      <c r="F22" t="n">
-        <v>388</v>
-      </c>
-      <c r="G22" t="n">
-        <v>333</v>
-      </c>
-      <c r="H22" t="n">
-        <v>293</v>
-      </c>
-      <c r="I22" t="n">
-        <v>973</v>
-      </c>
-      <c r="J22" t="n">
-        <v>117</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8773</v>
-      </c>
-      <c r="L22" t="n">
-        <v>21157</v>
+        <v>21389</v>
       </c>
     </row>
   </sheetData>
